--- a/biology/Médecine/Pachyonychie_congénitale/Pachyonychie_congénitale.xlsx
+++ b/biology/Médecine/Pachyonychie_congénitale/Pachyonychie_congénitale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pachyonychie_cong%C3%A9nitale</t>
+          <t>Pachyonychie_congénitale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La pachyonychie congénitale est une maladie génétique atteignant l'ectoderme.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pachyonychie_cong%C3%A9nitale</t>
+          <t>Pachyonychie_congénitale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,9 +528,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(en) Frances JD Smith, Roger L Kaspar, Mary E Schwartz, WH Irwin McLean, Sancy A Leachman, Pachyonychia Congenita in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) Frances JD Smith, Roger L Kaspar, Mary E Schwartz, WH Irwin McLean, Sancy A Leachman, Pachyonychia Congenita in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pachyonychie_cong%C3%A9nitale</t>
+          <t>Pachyonychie_congénitale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ressources relatives à la santé : Diseases Ontology DiseasesDB Genetic and Rare Diseases Information Center ICD-10 Version:2016 ICD9Data.com Medical Subject Headings NCI Thesaurus Orphanet  
